--- a/discussion/Comparar_literatura_CPD1.xlsx
+++ b/discussion/Comparar_literatura_CPD1.xlsx
@@ -491,7 +491,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.78515625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.8046875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="7.68" customWidth="1" style="3" min="1" max="1"/>
   </cols>
@@ -2072,7 +2072,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="9.779999999999999" customWidth="1" style="3" min="2" max="2"/>
     <col width="17.67" customWidth="1" style="3" min="5" max="5"/>
